--- a/shifts_sheet.xlsx
+++ b/shifts_sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,45 +461,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ShiftLength</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Saturday</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Flexibility</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
@@ -511,51 +516,54 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>06:15:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -570,7 +578,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,17 +588,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -599,17 +607,20 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -619,35 +630,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:15:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -656,15 +667,18 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -673,26 +687,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -701,24 +715,27 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -727,38 +744,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -766,12 +783,15 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,52 +801,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>1.5</v>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -835,26 +858,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>00:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -869,17 +892,20 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -889,26 +915,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>04:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -928,13 +954,16 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>2</v>
+      <c r="O9" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -943,26 +972,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>12.25</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -982,13 +1011,16 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
+      <c r="O10" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -997,52 +1029,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -1051,26 +1086,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1088,15 +1123,18 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1105,32 +1143,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1144,12 +1182,15 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1159,35 +1200,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1198,12 +1239,15 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -1213,29 +1257,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>10.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1244,21 +1288,24 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
@@ -1267,32 +1314,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1304,15 +1351,18 @@
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1321,52 +1371,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>06:15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11:15:00</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>12.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -1375,26 +1428,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>04:45:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1409,18 +1462,21 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>1.5</v>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1429,26 +1485,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>01:45:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1463,17 +1519,20 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1483,51 +1542,54 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>23:45:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>04:45:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1537,26 +1599,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1574,15 +1636,18 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>1.5</v>
+      <c r="O21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1591,32 +1656,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1625,18 +1690,21 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>2</v>
+      <c r="O22" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -1645,17 +1713,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>01:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1664,19 +1732,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1684,13 +1752,16 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>1</v>
+      <c r="O23" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -1699,35 +1770,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1736,14 +1807,17 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,17 +1827,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>20:45:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1772,13 +1846,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1790,15 +1864,18 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -1807,12 +1884,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>02:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1822,23 +1899,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>11.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1846,12 +1923,15 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1861,52 +1941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>05:45:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>2</v>
+      <c r="O27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1915,51 +1998,54 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,26 +2055,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2000,20 +2086,23 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2023,35 +2112,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03:45:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2060,14 +2149,17 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2077,17 +2169,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2096,16 +2188,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2116,13 +2208,16 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2131,29 +2226,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>09:15:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -2170,12 +2265,15 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2185,32 +2283,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00:15:00</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2222,14 +2320,17 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2239,51 +2340,54 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2293,52 +2397,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06:15:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -2347,17 +2454,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2366,33 +2473,36 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="37">
@@ -2401,51 +2511,54 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>05:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2455,38 +2568,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2494,12 +2607,15 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2509,26 +2625,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>23:45:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>09:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2540,21 +2656,24 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2563,17 +2682,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>04:45:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2582,16 +2701,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2602,12 +2721,15 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2617,26 +2739,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>9.25</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2645,24 +2767,27 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>1.5</v>
+      <c r="O41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2671,26 +2796,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>23:45:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>01:45:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2710,12 +2835,15 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2725,29 +2853,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>00:45:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2759,18 +2887,21 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>1.5</v>
+      <c r="O43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2784,12 +2915,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2798,7 +2929,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2807,23 +2938,26 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2833,51 +2967,54 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01:45:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2887,26 +3024,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2915,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2924,15 +3061,18 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
@@ -2941,38 +3081,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>23:45:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>09:45:00</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>05:15:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2980,12 +3120,15 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2995,29 +3138,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>22:45:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06:45:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3026,20 +3169,23 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3049,26 +3195,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>03:15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3088,13 +3234,16 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>1</v>
+      <c r="O49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3103,51 +3252,54 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>07:15:00</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3157,38 +3309,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -3196,12 +3348,15 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3211,26 +3366,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3239,23 +3394,26 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3265,35 +3423,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>06:45:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>08:45:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3302,14 +3460,17 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,17 +3480,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01:15:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3338,13 +3499,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3356,14 +3517,17 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3373,32 +3537,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>8.75</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3412,12 +3576,15 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3427,29 +3594,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -3461,18 +3628,21 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>1</v>
+      <c r="O56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3481,17 +3651,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3500,13 +3670,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -3518,15 +3688,18 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>2</v>
+      <c r="O57" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="58">
@@ -3535,32 +3708,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03:45:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01:30:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>7.75</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -3574,12 +3747,15 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3589,26 +3765,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:45:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3617,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3628,12 +3804,15 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,26 +3822,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>22:45:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>07:15:00</t>
+          <t>00:15:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>6.75</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3677,17 +3856,20 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3697,29 +3879,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>03:45:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>01:45:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3731,17 +3913,20 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3751,26 +3936,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>02:30:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3779,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -3790,12 +3975,15 @@
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3805,32 +3993,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>20:45:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3842,15 +4030,18 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
@@ -3859,26 +4050,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3890,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3898,13 +4089,16 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="65">
@@ -3913,52 +4107,55 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3967,17 +4164,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>20:45:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3986,7 +4183,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3995,24 +4192,27 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="67">
@@ -4021,38 +4221,38 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>01:45:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>03:45:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -4060,13 +4260,16 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -4075,35 +4278,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>03:45:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4112,15 +4315,18 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -4129,51 +4335,54 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>07:15:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4183,52 +4392,55 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>01:15:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>1.5</v>
+      <c r="O70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4237,35 +4449,35 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>10.75</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4274,15 +4486,18 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="72">
@@ -4291,51 +4506,54 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>05:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4345,52 +4563,55 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01:30:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>1.5</v>
+      <c r="O73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4399,17 +4620,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4418,16 +4639,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>7.75</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4438,12 +4659,15 @@
       <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4453,52 +4677,55 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>22:45:00</t>
+          <t>20:45:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>01:00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>00:15:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>2</v>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="76">
@@ -4507,17 +4734,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>22:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4526,32 +4753,35 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4561,32 +4791,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>06:15:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -4595,17 +4825,20 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4615,32 +4848,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>22:45:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -4652,14 +4885,17 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4669,26 +4905,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4700,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4708,13 +4944,16 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>2</v>
+      <c r="O79" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
@@ -4723,32 +4962,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>02:15:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4757,17 +4996,20 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4777,35 +5019,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>03:15:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>05:45:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>10.25</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4816,12 +5058,15 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4831,26 +5076,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>04:45:00</t>
+          <t>03:15:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>06:15:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4859,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4870,12 +5115,15 @@
       <c r="L82" t="n">
         <v>0</v>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4885,32 +5133,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01:15:00</t>
+          <t>08:45:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -4919,18 +5167,21 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -4939,52 +5190,55 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>1.5</v>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4998,33 +5252,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>06:45:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5032,12 +5286,15 @@
       <c r="L85" t="n">
         <v>0</v>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5047,29 +5304,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5078,21 +5335,24 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5101,26 +5361,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -5132,21 +5392,24 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -5155,29 +5418,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>01:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -5194,13 +5457,16 @@
       <c r="L88" t="n">
         <v>0</v>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>2</v>
+      <c r="O88" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
@@ -5209,52 +5475,55 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>02:15:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>10.75</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>1</v>
+      <c r="O89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -5263,26 +5532,26 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>09:15:00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5294,21 +5563,24 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>1.5</v>
+      <c r="O90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5317,38 +5589,38 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5356,13 +5628,16 @@
       <c r="L91" t="n">
         <v>0</v>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>1.5</v>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5371,17 +5646,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5390,7 +5665,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -5399,24 +5674,27 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -5425,17 +5703,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5444,13 +5722,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -5459,18 +5737,21 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5479,51 +5760,54 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>06:15:00</t>
+          <t>08:45:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>10:45:00</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,29 +5817,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>01:45:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>03:15:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5564,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5572,13 +5856,16 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>1</v>
+      <c r="O95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -5587,26 +5874,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>10:15:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -5615,24 +5902,27 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>1.5</v>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -5641,52 +5931,55 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>23:45:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>2</v>
+      <c r="O97" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="98">
@@ -5695,52 +5988,55 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>04:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0:15:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -5749,17 +6045,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5768,32 +6064,35 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -5803,26 +6102,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>03:45:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>00:15:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5831,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5842,13 +6141,16 @@
       <c r="L100" t="n">
         <v>0</v>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1.5</v>
+      <c r="O100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5857,29 +6159,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>22:45:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -5896,12 +6198,15 @@
       <c r="L101" t="n">
         <v>0</v>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>1</v>
       </c>
     </row>
